--- a/final/Exported_Tender_Data.xlsx
+++ b/final/Exported_Tender_Data.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NDRF" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NDRF_16_7_2025" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'NDRF'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'NDRF_16_7_2025'!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,10 +464,10 @@
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="36" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
     <col width="18" customWidth="1" min="9" max="9"/>
-    <col width="18" customWidth="1" min="10" max="10"/>
+    <col width="36" customWidth="1" min="10" max="10"/>
     <col width="18" customWidth="1" min="11" max="11"/>
     <col width="18" customWidth="1" min="12" max="12"/>
     <col width="18" customWidth="1" min="13" max="13"/>
@@ -476,7 +476,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>NDRF – Exported on 2025-07-15 11:03</t>
+          <t>NDRF_16_7_2025 – Exported on 2025-07-16 11:39</t>
         </is>
       </c>
     </row>
@@ -550,45 +550,214 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>GEM/2025/B/6259584</t>
+          <t>GEM/2025/B/6308920</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>CSSR Boot (Hard Toe Steel Shank Boot)</t>
+          <t>Battery operated Diamond Chain Saw</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1543200</v>
+        <v>1296000</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>77160000</v>
+        <v>64800000</v>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>["781017,The Commandant, 01\nBn NDRF, PATGAON, PO-AZARA\n, DISTRICT- KAMRUP, Near-\nAZARA RAILWAY STATION,\nGUWAHATI (ASSAM)-781017"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>NATIONAL DISASTER RESPONSE FORCE</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr"/>
+          <t>NATIONAL DISASTER RESPONSE FORCE (NDRF)</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>LIVE</t>
+        </is>
+      </c>
       <c r="J3" s="4" t="inlineStr"/>
       <c r="K3" s="4" t="inlineStr"/>
       <c r="L3" s="4" t="inlineStr"/>
       <c r="M3" s="4" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>'GEM/2021/B/1347626'</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Battery Operated Pole Pruner with battery, Battery Operated Chain Saw with battery, Back Pack Battery</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>2021-08-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="n">
+        <v>481970</v>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>haryana</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>department of health and family welfare</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>AOC</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>NV Trading &amp; Consultancy</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>481970</v>
+      </c>
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t>4.8 L</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>'GEM/2024/B/4505090'</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Generator, Axe, Camping Light, Crowbar, Hand Auger, Bolt Cutter, Battery Operated Chain Saw, Inflattable B</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>2024-01-29 00:00:00</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="n">
+        <v>118400</v>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>odisha</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>forest and environment department odisha p c c f orissa bhubaneswar deputy director nandankanan zoological park</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>Financial Evaluation</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>BALSONS TECHNO SOLUTION</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>118400</v>
+      </c>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t>1.2 L</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>'GEM/2024/B/4560884'</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Battery Operated Brushless Chain Saw Along with Charger and Battery, Charger For Battery Above Sl No</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>2024-02-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="n">
+        <v>14168260</v>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>tripura</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>directorate of industries</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>AOC</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>TFS TELE- SYSTEMS</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>14168260</v>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>1.4 Cr</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
